--- a/dataset/series_diarias.xlsx
+++ b/dataset/series_diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Francisco\MCD-Series-Temporales\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB447B54-175F-4098-B3E8-E76825124F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87299C82-7533-40D6-B1B5-4965105B8687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="1845" windowWidth="20640" windowHeight="11160" xr2:uid="{3F334836-4FB1-4825-A034-53C16992D311}"/>
   </bookViews>
@@ -5314,8 +5314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8419698C-98A1-44B9-8F15-BF41CAB520E2}">
   <dimension ref="A1:J3289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5629,12 +5629,6 @@
       <c r="A32" s="2">
         <v>42400</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -6670,12 +6664,6 @@
       <c r="A122" s="2">
         <v>42490</v>
       </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
@@ -8159,12 +8147,6 @@
       <c r="A214" s="2">
         <v>42582</v>
       </c>
-      <c r="I214">
-        <v>0</v>
-      </c>
-      <c r="J214">
-        <v>0</v>
-      </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
@@ -10631,12 +10613,6 @@
       <c r="A367" s="2">
         <v>42735</v>
       </c>
-      <c r="I367">
-        <v>0</v>
-      </c>
-      <c r="J367">
-        <v>0</v>
-      </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
@@ -11610,12 +11586,6 @@
       <c r="A426" s="2">
         <v>42794</v>
       </c>
-      <c r="I426">
-        <v>0</v>
-      </c>
-      <c r="J426">
-        <v>0</v>
-      </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
@@ -12611,12 +12581,6 @@
       <c r="A487" s="2">
         <v>42855</v>
       </c>
-      <c r="I487">
-        <v>0</v>
-      </c>
-      <c r="J487">
-        <v>0</v>
-      </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
@@ -15110,12 +15074,6 @@
       <c r="A640" s="2">
         <v>43008</v>
       </c>
-      <c r="I640">
-        <v>0</v>
-      </c>
-      <c r="J640">
-        <v>0</v>
-      </c>
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A641" s="2">
@@ -16566,12 +16524,6 @@
       <c r="A732" s="2">
         <v>43100</v>
       </c>
-      <c r="I732">
-        <v>0</v>
-      </c>
-      <c r="J732">
-        <v>0</v>
-      </c>
     </row>
     <row r="733" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A733" s="2">
@@ -18372,12 +18324,6 @@
       <c r="A822" s="2">
         <v>43190</v>
       </c>
-      <c r="I822">
-        <v>0</v>
-      </c>
-      <c r="J822">
-        <v>0</v>
-      </c>
     </row>
     <row r="823" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A823" s="2">
@@ -18933,12 +18879,6 @@
       <c r="A852" s="2">
         <v>43220</v>
       </c>
-      <c r="I852">
-        <v>0</v>
-      </c>
-      <c r="J852">
-        <v>0</v>
-      </c>
     </row>
     <row r="853" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A853" s="2">
@@ -20162,12 +20102,6 @@
       <c r="A913" s="2">
         <v>43281</v>
       </c>
-      <c r="I913">
-        <v>0</v>
-      </c>
-      <c r="J913">
-        <v>0</v>
-      </c>
     </row>
     <row r="914" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A914" s="2">
@@ -22053,12 +21987,6 @@
       <c r="A1005" s="2">
         <v>43373</v>
       </c>
-      <c r="I1005">
-        <v>0</v>
-      </c>
-      <c r="J1005">
-        <v>0</v>
-      </c>
     </row>
     <row r="1006" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1006" s="2">
@@ -23312,12 +23240,6 @@
       <c r="D1066">
         <v>14727459</v>
       </c>
-      <c r="I1066">
-        <v>0</v>
-      </c>
-      <c r="J1066">
-        <v>0</v>
-      </c>
     </row>
     <row r="1067" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1067" s="2">
@@ -23368,9 +23290,6 @@
       <c r="F1070">
         <v>623938</v>
       </c>
-      <c r="G1070">
-        <v>0</v>
-      </c>
       <c r="I1070">
         <v>60</v>
       </c>
@@ -23875,12 +23794,6 @@
       <c r="A1097" s="2">
         <v>43465</v>
       </c>
-      <c r="I1097">
-        <v>0</v>
-      </c>
-      <c r="J1097">
-        <v>0</v>
-      </c>
     </row>
     <row r="1098" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1098" s="2">
@@ -25702,12 +25615,6 @@
       <c r="A1187" s="2">
         <v>43555</v>
       </c>
-      <c r="I1187">
-        <v>0</v>
-      </c>
-      <c r="J1187">
-        <v>0</v>
-      </c>
     </row>
     <row r="1188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1188" s="2">
@@ -27456,12 +27363,6 @@
       <c r="A1278" s="2">
         <v>43646</v>
       </c>
-      <c r="I1278">
-        <v>0</v>
-      </c>
-      <c r="J1278">
-        <v>0</v>
-      </c>
     </row>
     <row r="1279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1279" s="2">
@@ -28720,12 +28621,6 @@
       <c r="A1340" s="2">
         <v>43708</v>
       </c>
-      <c r="I1340">
-        <v>0</v>
-      </c>
-      <c r="J1340">
-        <v>0</v>
-      </c>
     </row>
     <row r="1341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1341" s="2">
@@ -30573,12 +30468,6 @@
       <c r="A1431" s="2">
         <v>43799</v>
       </c>
-      <c r="I1431">
-        <v>0</v>
-      </c>
-      <c r="J1431">
-        <v>0</v>
-      </c>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1432" s="2">
@@ -31136,12 +31025,6 @@
       <c r="A1462" s="2">
         <v>43830</v>
       </c>
-      <c r="I1462">
-        <v>0</v>
-      </c>
-      <c r="J1462">
-        <v>0</v>
-      </c>
     </row>
     <row r="1463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1463" s="2">
@@ -32342,12 +32225,6 @@
       <c r="A1522" s="2">
         <v>43890</v>
       </c>
-      <c r="I1522">
-        <v>0</v>
-      </c>
-      <c r="J1522">
-        <v>0</v>
-      </c>
     </row>
     <row r="1523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1523" s="2">
@@ -32935,12 +32812,6 @@
       <c r="A1553" s="2">
         <v>43921</v>
       </c>
-      <c r="I1553">
-        <v>0</v>
-      </c>
-      <c r="J1553">
-        <v>0</v>
-      </c>
     </row>
     <row r="1554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1554" s="2">
@@ -34122,12 +33993,6 @@
       <c r="A1614" s="2">
         <v>43982</v>
       </c>
-      <c r="I1614">
-        <v>0</v>
-      </c>
-      <c r="J1614">
-        <v>0</v>
-      </c>
     </row>
     <row r="1615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1615" s="2">
@@ -37215,12 +37080,6 @@
       <c r="A1767" s="2">
         <v>44135</v>
       </c>
-      <c r="I1767">
-        <v>0</v>
-      </c>
-      <c r="J1767">
-        <v>0</v>
-      </c>
     </row>
     <row r="1768" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1768" s="2">
@@ -38354,12 +38213,6 @@
       <c r="A1828" s="2">
         <v>44196</v>
       </c>
-      <c r="I1828">
-        <v>0</v>
-      </c>
-      <c r="J1828">
-        <v>0</v>
-      </c>
     </row>
     <row r="1829" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1829" s="2">
@@ -38959,12 +38812,6 @@
       <c r="A1859" s="2">
         <v>44227</v>
       </c>
-      <c r="I1859">
-        <v>0</v>
-      </c>
-      <c r="J1859">
-        <v>0</v>
-      </c>
     </row>
     <row r="1860" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1860" s="2">
@@ -39519,12 +39366,6 @@
       <c r="A1887" s="2">
         <v>44255</v>
       </c>
-      <c r="I1887">
-        <v>0</v>
-      </c>
-      <c r="J1887">
-        <v>0</v>
-      </c>
     </row>
     <row r="1888" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1888" s="2">
@@ -42585,12 +42426,6 @@
       <c r="A2040" s="2">
         <v>44408</v>
       </c>
-      <c r="I2040">
-        <v>0</v>
-      </c>
-      <c r="J2040">
-        <v>0</v>
-      </c>
     </row>
     <row r="2041" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2041" s="2">
@@ -44461,12 +44296,6 @@
       <c r="A2132" s="2">
         <v>44500</v>
       </c>
-      <c r="I2132">
-        <v>0</v>
-      </c>
-      <c r="J2132">
-        <v>0</v>
-      </c>
     </row>
     <row r="2133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2133" s="2">
@@ -45693,12 +45522,6 @@
       <c r="A2193" s="2">
         <v>44561</v>
       </c>
-      <c r="I2193">
-        <v>0</v>
-      </c>
-      <c r="J2193">
-        <v>0</v>
-      </c>
     </row>
     <row r="2194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2194" s="2">
@@ -46894,12 +46717,6 @@
       <c r="A2252" s="2">
         <v>44620</v>
       </c>
-      <c r="I2252">
-        <v>0</v>
-      </c>
-      <c r="J2252">
-        <v>0</v>
-      </c>
     </row>
     <row r="2253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2253" s="2">
@@ -48087,12 +47904,6 @@
       <c r="A2313" s="2">
         <v>44681</v>
       </c>
-      <c r="I2313">
-        <v>0</v>
-      </c>
-      <c r="J2313">
-        <v>0</v>
-      </c>
     </row>
     <row r="2314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2314" s="2">
@@ -49912,12 +49723,6 @@
       <c r="A2405" s="2">
         <v>44773</v>
       </c>
-      <c r="I2405">
-        <v>0</v>
-      </c>
-      <c r="J2405">
-        <v>0</v>
-      </c>
     </row>
     <row r="2406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2406" s="2">
@@ -52924,12 +52729,6 @@
       <c r="A2558" s="2">
         <v>44926</v>
       </c>
-      <c r="I2558">
-        <v>0</v>
-      </c>
-      <c r="J2558">
-        <v>0</v>
-      </c>
     </row>
     <row r="2559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2559" s="2">
@@ -55363,12 +55162,6 @@
       <c r="A2678" s="2">
         <v>45046</v>
       </c>
-      <c r="I2678">
-        <v>0</v>
-      </c>
-      <c r="J2678">
-        <v>0</v>
-      </c>
     </row>
     <row r="2679" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2679" s="2">
@@ -58516,12 +58309,6 @@
       <c r="A2831" s="2">
         <v>45199</v>
       </c>
-      <c r="I2831">
-        <v>0</v>
-      </c>
-      <c r="J2831">
-        <v>0</v>
-      </c>
     </row>
     <row r="2832" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2832" s="2">
@@ -60320,12 +60107,6 @@
       <c r="A2923" s="2">
         <v>45291</v>
       </c>
-      <c r="I2923">
-        <v>0</v>
-      </c>
-      <c r="J2923">
-        <v>0</v>
-      </c>
     </row>
     <row r="2924" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2924" s="2">
@@ -62155,12 +61936,6 @@
       <c r="A3014" s="2">
         <v>45382</v>
       </c>
-      <c r="I3014">
-        <v>0</v>
-      </c>
-      <c r="J3014">
-        <v>0</v>
-      </c>
     </row>
     <row r="3015" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3015" s="2">
@@ -65758,7 +65533,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J3289" xr:uid="{8419698C-98A1-44B9-8F15-BF41CAB520E2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dataset/series_diarias.xlsx
+++ b/dataset/series_diarias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Francisco\MCD-Series-Temporales\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5405F17-A8B7-4FA0-B8FC-D506A02FCD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6560156-B9E7-428A-8B3C-454B5650916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="1845" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="171" formatCode="#.##00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +109,29 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Courier"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,21 +166,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="F2" xfId="2" xr:uid="{DA719009-BDD5-43AB-A5B6-DEAAE7EFF4AD}"/>
+    <cellStyle name="F3" xfId="3" xr:uid="{01A98735-906F-4F83-9309-8AA298B209D9}"/>
+    <cellStyle name="F4" xfId="4" xr:uid="{3C1A8746-DC40-46DE-8FD2-3E34B6F2B025}"/>
+    <cellStyle name="F5" xfId="5" xr:uid="{DEEDEB0B-134B-4702-8496-B8EFE377720E}"/>
+    <cellStyle name="F6" xfId="6" xr:uid="{6E82CF94-6661-4CD0-B50C-CE462E04CEF5}"/>
+    <cellStyle name="F7" xfId="7" xr:uid="{3272C33A-AD68-4E1C-AC98-33014955C82B}"/>
+    <cellStyle name="F8" xfId="8" xr:uid="{8573F232-0181-47FA-8B20-10A1B6386031}"/>
+    <cellStyle name="Millares 2" xfId="10" xr:uid="{60527032-F27A-4342-8EA4-FB21B91BA176}"/>
+    <cellStyle name="Millares 3" xfId="9" xr:uid="{4354587B-8915-40FC-9024-893EB901D992}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CC2BC907-6770-422D-A971-00EBDD992DFC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2033"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A2006" workbookViewId="0">
+      <selection activeCell="Q2007" sqref="Q2007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71820,6 +71880,9 @@
       <c r="A2013" s="2">
         <v>45537</v>
       </c>
+      <c r="B2013">
+        <v>470646.65393000003</v>
+      </c>
       <c r="D2013">
         <v>514886</v>
       </c>
@@ -71828,100 +71891,154 @@
       </c>
       <c r="K2013">
         <v>1137.82</v>
+      </c>
+      <c r="P2013">
+        <v>413.63893579828095</v>
       </c>
     </row>
     <row r="2014" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2014" s="2">
         <v>45538</v>
       </c>
+      <c r="B2014">
+        <v>471609.79560999997</v>
+      </c>
       <c r="D2014">
         <v>197567</v>
       </c>
       <c r="K2014">
         <v>1142.1500000000001</v>
+      </c>
+      <c r="P2014">
+        <v>412.91406173444813</v>
       </c>
     </row>
     <row r="2015" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2015" s="2">
         <v>45539</v>
       </c>
+      <c r="B2015">
+        <v>745514.27254000003</v>
+      </c>
       <c r="D2015">
         <v>518041</v>
       </c>
       <c r="K2015">
         <v>1143.5899999999999</v>
+      </c>
+      <c r="P2015">
+        <v>651.90695313879985</v>
       </c>
     </row>
     <row r="2016" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2016" s="2">
         <v>45540</v>
       </c>
+      <c r="B2016">
+        <v>1126510.50275</v>
+      </c>
       <c r="D2016">
         <v>793046</v>
       </c>
       <c r="K2016">
         <v>1145.04</v>
       </c>
-    </row>
-    <row r="2017" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2016">
+        <v>983.81759829350938</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2017" s="2">
         <v>45541</v>
       </c>
+      <c r="B2017">
+        <v>1422548.1499699999</v>
+      </c>
       <c r="D2017">
         <v>1155534</v>
       </c>
       <c r="K2017">
         <v>1146.49</v>
       </c>
-    </row>
-    <row r="2018" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2017">
+        <v>1240.7854843653236</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2018" s="2">
         <v>45544</v>
       </c>
+      <c r="B2018">
+        <v>872268.57764999999</v>
+      </c>
       <c r="D2018">
         <v>1145149</v>
       </c>
       <c r="K2018">
         <v>1147.94</v>
       </c>
-    </row>
-    <row r="2019" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2018">
+        <v>759.85554789448918</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2019" s="2">
         <v>45545</v>
       </c>
+      <c r="B2019">
+        <v>1091143.5345399999</v>
+      </c>
       <c r="D2019">
         <v>1468743</v>
       </c>
       <c r="K2019">
         <v>1152.31</v>
       </c>
-    </row>
-    <row r="2020" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2019">
+        <v>946.91839395648742</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2020" s="2">
         <v>45546</v>
       </c>
+      <c r="B2020">
+        <v>4893514.5635799998</v>
+      </c>
       <c r="D2020">
         <v>3286006</v>
       </c>
       <c r="K2020">
         <v>1153.77</v>
       </c>
-    </row>
-    <row r="2021" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2020">
+        <v>4241.3258826109186</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2021" s="2">
         <v>45547</v>
       </c>
+      <c r="B2021">
+        <v>3831659.1954899998</v>
+      </c>
       <c r="D2021">
         <v>831573</v>
       </c>
       <c r="K2021">
         <v>1155.23</v>
       </c>
-    </row>
-    <row r="2022" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2021">
+        <v>3316.7933619192713</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2022" s="2">
         <v>45548</v>
       </c>
+      <c r="B2022">
+        <v>3465237.8627600004</v>
+      </c>
       <c r="D2022">
         <v>1540996</v>
       </c>
@@ -71931,11 +72048,17 @@
       <c r="K2022">
         <v>1156.69</v>
       </c>
-    </row>
-    <row r="2023" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2022">
+        <v>2995.8224440083345</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2023" s="2">
         <v>45551</v>
       </c>
+      <c r="B2023">
+        <v>1007665.2702799999</v>
+      </c>
       <c r="D2023">
         <v>1509559</v>
       </c>
@@ -71945,11 +72068,17 @@
       <c r="K2023">
         <v>1158.1500000000001</v>
       </c>
-    </row>
-    <row r="2024" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2023">
+        <v>870.06456010015961</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2024" s="2">
         <v>45552</v>
       </c>
+      <c r="B2024">
+        <v>1840027.89429</v>
+      </c>
       <c r="D2024">
         <v>1410107</v>
       </c>
@@ -71959,33 +72088,51 @@
       <c r="K2024">
         <v>1162.68</v>
       </c>
-    </row>
-    <row r="2025" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2024">
+        <v>1582.5746501960984</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2025" s="2">
         <v>45553</v>
       </c>
+      <c r="B2025">
+        <v>2353497.3351799999</v>
+      </c>
       <c r="D2025">
         <v>3755766</v>
       </c>
       <c r="K2025">
         <v>1164.28</v>
       </c>
-    </row>
-    <row r="2026" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2025">
+        <v>2021.4186752155838</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2026" s="2">
         <v>45554</v>
       </c>
+      <c r="B2026">
+        <v>2154733.8847600003</v>
+      </c>
       <c r="D2026">
         <v>2359878</v>
       </c>
       <c r="K2026">
         <v>1165.8800000000001</v>
       </c>
-    </row>
-    <row r="2027" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2026">
+        <v>1848.160946889903</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2027" s="2">
         <v>45555</v>
       </c>
+      <c r="B2027">
+        <v>6711149.9225599999</v>
+      </c>
       <c r="D2027">
         <v>2100039</v>
       </c>
@@ -71995,71 +72142,110 @@
       <c r="K2027">
         <v>1167.48</v>
       </c>
-    </row>
-    <row r="2028" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2027">
+        <v>5748.406758625415</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2028" s="2">
         <v>45558</v>
       </c>
+      <c r="B2028">
+        <v>3540938.7814099998</v>
+      </c>
       <c r="D2028">
         <v>1603945</v>
       </c>
       <c r="K2028">
         <v>1169.08</v>
       </c>
-    </row>
-    <row r="2029" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2028">
+        <v>3028.825043119376</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2029" s="2">
         <v>45559</v>
       </c>
+      <c r="B2029">
+        <v>3932926.8258000002</v>
+      </c>
       <c r="D2029">
         <v>1102539</v>
       </c>
       <c r="K2029">
         <v>1173.9000000000001</v>
       </c>
-    </row>
-    <row r="2030" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2029">
+        <v>3350.3082254025044</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2030" s="2">
         <v>45560</v>
       </c>
+      <c r="B2030">
+        <v>4750142.1088699996</v>
+      </c>
       <c r="D2030">
         <v>2665230</v>
       </c>
       <c r="K2030">
         <v>1175.51</v>
       </c>
-    </row>
-    <row r="2031" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2030">
+        <v>4040.9202038859726</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2031" s="2">
         <v>45561</v>
       </c>
+      <c r="B2031">
+        <v>5059747.6310099997</v>
+      </c>
       <c r="D2031">
         <v>414982</v>
       </c>
       <c r="K2031">
         <v>1177.1199999999999</v>
       </c>
-    </row>
-    <row r="2032" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2031">
+        <v>4298.4127625135925</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2032" s="2">
         <v>45562</v>
       </c>
+      <c r="B2032">
+        <v>2710323.9920600001</v>
+      </c>
       <c r="D2032">
         <v>1313814</v>
       </c>
       <c r="K2032">
         <v>1178.74</v>
       </c>
-    </row>
-    <row r="2033" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2032">
+        <v>2299.3399664557069</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2033" s="2">
         <v>45565</v>
       </c>
+      <c r="B2033">
+        <v>1529934.9615199999</v>
+      </c>
       <c r="D2033">
         <v>1855328</v>
       </c>
       <c r="K2033">
         <v>1180.3499999999999</v>
+      </c>
+      <c r="P2033">
+        <v>1296.1705947557928</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/series_diarias.xlsx
+++ b/dataset/series_diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Francisco\MCD-Series-Temporales\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6560156-B9E7-428A-8B3C-454B5650916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A47104-D95A-445A-8708-F0DACBCA08C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,13 +90,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="171" formatCode="#.##00"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="#.##00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,11 +124,6 @@
       <i/>
       <sz val="1"/>
       <color indexed="8"/>
-      <name val="Courier"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Courier"/>
       <family val="3"/>
     </font>
@@ -169,29 +163,29 @@
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -516,12 +510,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2006" workbookViewId="0">
-      <selection activeCell="Q2007" sqref="Q2007"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -71741,7 +71734,7 @@
       <c r="A2005" s="2">
         <v>45525</v>
       </c>
-      <c r="B2005">
+      <c r="B2005" s="3">
         <v>3014863.1290699998</v>
       </c>
       <c r="D2005">
@@ -71758,7 +71751,7 @@
       <c r="A2006" s="2">
         <v>45526</v>
       </c>
-      <c r="B2006">
+      <c r="B2006" s="3">
         <v>7372109.5173199996</v>
       </c>
       <c r="D2006">
@@ -71792,7 +71785,7 @@
       <c r="A2008" s="2">
         <v>45530</v>
       </c>
-      <c r="B2008">
+      <c r="B2008" s="3">
         <v>4591950.2938700002</v>
       </c>
       <c r="D2008">
@@ -71809,7 +71802,7 @@
       <c r="A2009" s="2">
         <v>45531</v>
       </c>
-      <c r="B2009">
+      <c r="B2009" s="3">
         <v>4121450.1675800001</v>
       </c>
       <c r="D2009">
@@ -71829,7 +71822,7 @@
       <c r="A2010" s="2">
         <v>45532</v>
       </c>
-      <c r="B2010">
+      <c r="B2010" s="3">
         <v>1183847.22358</v>
       </c>
       <c r="D2010">
@@ -71846,7 +71839,7 @@
       <c r="A2011" s="2">
         <v>45533</v>
       </c>
-      <c r="B2011">
+      <c r="B2011" s="3">
         <v>793935.84843000001</v>
       </c>
       <c r="D2011">
@@ -71863,7 +71856,7 @@
       <c r="A2012" s="2">
         <v>45534</v>
       </c>
-      <c r="B2012">
+      <c r="B2012" s="3">
         <v>1043021.32754</v>
       </c>
       <c r="D2012">
@@ -71880,7 +71873,7 @@
       <c r="A2013" s="2">
         <v>45537</v>
       </c>
-      <c r="B2013">
+      <c r="B2013" s="3">
         <v>470646.65393000003</v>
       </c>
       <c r="D2013">
@@ -71893,14 +71886,14 @@
         <v>1137.82</v>
       </c>
       <c r="P2013">
-        <v>413.63893579828095</v>
+        <v>41363.893579828095</v>
       </c>
     </row>
     <row r="2014" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2014" s="2">
         <v>45538</v>
       </c>
-      <c r="B2014">
+      <c r="B2014" s="3">
         <v>471609.79560999997</v>
       </c>
       <c r="D2014">
@@ -71910,14 +71903,14 @@
         <v>1142.1500000000001</v>
       </c>
       <c r="P2014">
-        <v>412.91406173444813</v>
+        <v>41291.406173444811</v>
       </c>
     </row>
     <row r="2015" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2015" s="2">
         <v>45539</v>
       </c>
-      <c r="B2015">
+      <c r="B2015" s="3">
         <v>745514.27254000003</v>
       </c>
       <c r="D2015">
@@ -71927,14 +71920,14 @@
         <v>1143.5899999999999</v>
       </c>
       <c r="P2015">
-        <v>651.90695313879985</v>
+        <v>65190.695313879987</v>
       </c>
     </row>
     <row r="2016" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2016" s="2">
         <v>45540</v>
       </c>
-      <c r="B2016">
+      <c r="B2016" s="3">
         <v>1126510.50275</v>
       </c>
       <c r="D2016">
@@ -71944,14 +71937,14 @@
         <v>1145.04</v>
       </c>
       <c r="P2016">
-        <v>983.81759829350938</v>
+        <v>98381.759829350936</v>
       </c>
     </row>
     <row r="2017" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2017" s="2">
         <v>45541</v>
       </c>
-      <c r="B2017">
+      <c r="B2017" s="3">
         <v>1422548.1499699999</v>
       </c>
       <c r="D2017">
@@ -71961,14 +71954,14 @@
         <v>1146.49</v>
       </c>
       <c r="P2017">
-        <v>1240.7854843653236</v>
+        <v>124078.54843653235</v>
       </c>
     </row>
     <row r="2018" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2018" s="2">
         <v>45544</v>
       </c>
-      <c r="B2018">
+      <c r="B2018" s="3">
         <v>872268.57764999999</v>
       </c>
       <c r="D2018">
@@ -71978,14 +71971,14 @@
         <v>1147.94</v>
       </c>
       <c r="P2018">
-        <v>759.85554789448918</v>
+        <v>75985.554789448914</v>
       </c>
     </row>
     <row r="2019" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2019" s="2">
         <v>45545</v>
       </c>
-      <c r="B2019">
+      <c r="B2019" s="3">
         <v>1091143.5345399999</v>
       </c>
       <c r="D2019">
@@ -71995,14 +71988,14 @@
         <v>1152.31</v>
       </c>
       <c r="P2019">
-        <v>946.91839395648742</v>
+        <v>94691.839395648742</v>
       </c>
     </row>
     <row r="2020" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2020" s="2">
         <v>45546</v>
       </c>
-      <c r="B2020">
+      <c r="B2020" s="3">
         <v>4893514.5635799998</v>
       </c>
       <c r="D2020">
@@ -72012,14 +72005,14 @@
         <v>1153.77</v>
       </c>
       <c r="P2020">
-        <v>4241.3258826109186</v>
+        <v>424132.58826109185</v>
       </c>
     </row>
     <row r="2021" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2021" s="2">
         <v>45547</v>
       </c>
-      <c r="B2021">
+      <c r="B2021" s="3">
         <v>3831659.1954899998</v>
       </c>
       <c r="D2021">
@@ -72029,14 +72022,14 @@
         <v>1155.23</v>
       </c>
       <c r="P2021">
-        <v>3316.7933619192713</v>
+        <v>331679.33619192714</v>
       </c>
     </row>
     <row r="2022" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2022" s="2">
         <v>45548</v>
       </c>
-      <c r="B2022">
+      <c r="B2022" s="3">
         <v>3465237.8627600004</v>
       </c>
       <c r="D2022">
@@ -72049,14 +72042,14 @@
         <v>1156.69</v>
       </c>
       <c r="P2022">
-        <v>2995.8224440083345</v>
+        <v>299582.24440083344</v>
       </c>
     </row>
     <row r="2023" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2023" s="2">
         <v>45551</v>
       </c>
-      <c r="B2023">
+      <c r="B2023" s="3">
         <v>1007665.2702799999</v>
       </c>
       <c r="D2023">
@@ -72069,14 +72062,14 @@
         <v>1158.1500000000001</v>
       </c>
       <c r="P2023">
-        <v>870.06456010015961</v>
+        <v>87006.456010015958</v>
       </c>
     </row>
     <row r="2024" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2024" s="2">
         <v>45552</v>
       </c>
-      <c r="B2024">
+      <c r="B2024" s="3">
         <v>1840027.89429</v>
       </c>
       <c r="D2024">
@@ -72089,14 +72082,14 @@
         <v>1162.68</v>
       </c>
       <c r="P2024">
-        <v>1582.5746501960984</v>
+        <v>158257.46501960984</v>
       </c>
     </row>
     <row r="2025" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2025" s="2">
         <v>45553</v>
       </c>
-      <c r="B2025">
+      <c r="B2025" s="3">
         <v>2353497.3351799999</v>
       </c>
       <c r="D2025">
@@ -72106,14 +72099,14 @@
         <v>1164.28</v>
       </c>
       <c r="P2025">
-        <v>2021.4186752155838</v>
+        <v>202141.86752155836</v>
       </c>
     </row>
     <row r="2026" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2026" s="2">
         <v>45554</v>
       </c>
-      <c r="B2026">
+      <c r="B2026" s="3">
         <v>2154733.8847600003</v>
       </c>
       <c r="D2026">
@@ -72123,14 +72116,14 @@
         <v>1165.8800000000001</v>
       </c>
       <c r="P2026">
-        <v>1848.160946889903</v>
+        <v>184816.0946889903</v>
       </c>
     </row>
     <row r="2027" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2027" s="2">
         <v>45555</v>
       </c>
-      <c r="B2027">
+      <c r="B2027" s="3">
         <v>6711149.9225599999</v>
       </c>
       <c r="D2027">
@@ -72143,14 +72136,14 @@
         <v>1167.48</v>
       </c>
       <c r="P2027">
-        <v>5748.406758625415</v>
+        <v>574840.67586254154</v>
       </c>
     </row>
     <row r="2028" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2028" s="2">
         <v>45558</v>
       </c>
-      <c r="B2028">
+      <c r="B2028" s="3">
         <v>3540938.7814099998</v>
       </c>
       <c r="D2028">
@@ -72160,14 +72153,14 @@
         <v>1169.08</v>
       </c>
       <c r="P2028">
-        <v>3028.825043119376</v>
+        <v>302882.50431193761</v>
       </c>
     </row>
     <row r="2029" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2029" s="2">
         <v>45559</v>
       </c>
-      <c r="B2029">
+      <c r="B2029" s="3">
         <v>3932926.8258000002</v>
       </c>
       <c r="D2029">
@@ -72177,14 +72170,14 @@
         <v>1173.9000000000001</v>
       </c>
       <c r="P2029">
-        <v>3350.3082254025044</v>
+        <v>335030.82254025043</v>
       </c>
     </row>
     <row r="2030" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2030" s="2">
         <v>45560</v>
       </c>
-      <c r="B2030">
+      <c r="B2030" s="3">
         <v>4750142.1088699996</v>
       </c>
       <c r="D2030">
@@ -72194,14 +72187,14 @@
         <v>1175.51</v>
       </c>
       <c r="P2030">
-        <v>4040.9202038859726</v>
+        <v>404092.02038859727</v>
       </c>
     </row>
     <row r="2031" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2031" s="2">
         <v>45561</v>
       </c>
-      <c r="B2031">
+      <c r="B2031" s="3">
         <v>5059747.6310099997</v>
       </c>
       <c r="D2031">
@@ -72211,14 +72204,14 @@
         <v>1177.1199999999999</v>
       </c>
       <c r="P2031">
-        <v>4298.4127625135925</v>
+        <v>429841.27625135926</v>
       </c>
     </row>
     <row r="2032" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2032" s="2">
         <v>45562</v>
       </c>
-      <c r="B2032">
+      <c r="B2032" s="3">
         <v>2710323.9920600001</v>
       </c>
       <c r="D2032">
@@ -72228,14 +72221,14 @@
         <v>1178.74</v>
       </c>
       <c r="P2032">
-        <v>2299.3399664557069</v>
+        <v>229933.99664557067</v>
       </c>
     </row>
     <row r="2033" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2033" s="2">
         <v>45565</v>
       </c>
-      <c r="B2033">
+      <c r="B2033" s="3">
         <v>1529934.9615199999</v>
       </c>
       <c r="D2033">
@@ -72245,7 +72238,7 @@
         <v>1180.3499999999999</v>
       </c>
       <c r="P2033">
-        <v>1296.1705947557928</v>
+        <v>129617.05947557927</v>
       </c>
     </row>
   </sheetData>
